--- a/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1909,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,17 +1921,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1940,13 +1961,2227 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6836</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6813</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7848</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2468</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004048</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004049</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>37</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>19.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,1455 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162605</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城鼎益混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>168.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.1738</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.39</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>42.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1678</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260109</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城内需增长贰号混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>48.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.1476</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海潜力组合混合H 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6619</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>450003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富兰克林国海潜力组合混合A 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>32.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.6619</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>260110</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城精选蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0005</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>450001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国富中国收益混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7825</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010350</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城品质长青混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7236</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>450011</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国富研究精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5016</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010271</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富兰克林国海价值成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2148</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012138</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>32.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2143</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000532</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城优势企业混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1935</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011078</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺德品质消费6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1818</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160611</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华优质治理混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>60.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1637</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1463</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010418</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>财通景气行业一年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1460</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>270041</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发消费品精选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>74.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1272</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000017</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>财通可持续发展主题混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0993</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010272</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富兰克林国海价值成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0794</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501026</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>财通多策略福享混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>81.86</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0696</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519991</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长信双利优选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006396</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长信双利优选混合E</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008110</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>九泰科盈价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>34.14</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0521</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008136</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>九泰科盈价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>34.14</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>610007</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>信达澳银消费优选混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.35</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>570007</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>诺德优选30混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>49.48</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>012139</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001535</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>景顺长城改革机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>82.23</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006967</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>财通行业龙头精选混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>82.09</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010022</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发消费品精选混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>74.34</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006968</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>财通行业龙头精选混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>82.09</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007945</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>景顺长城改革机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>82.23</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004695</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>东兴未来价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007550</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>东兴未来价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>49.48</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4128,64 +2738,1454 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.39</v>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.76</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7236</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>19.39</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>37</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>19.76</v>
       </c>
     </row>
@@ -515,6 +532,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳消费优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015751</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2732,7 +4321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>11.73</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>19.39</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>37</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>19.76</v>
       </c>
     </row>
@@ -532,6 +549,2938 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>400.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.2219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.0684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6507</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6505</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0522</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9080</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8808</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7977</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6979</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5801</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002711</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发集丰债券A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015755</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信澳消费优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016385</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016384</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002712</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发集丰债券C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>017110</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014990</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>017170</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015751</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2103,7 +5052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4321,7 +7270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
